--- a/medicine/Mort/Cimetière_boisé_de_Stockholm/Cimetière_boisé_de_Stockholm.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Stockholm/Cimetière_boisé_de_Stockholm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Stockholm</t>
+          <t>Cimetière_boisé_de_Stockholm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière boisé de Stockholm[1] (Skogskyrkogården i Stockholm) est un cimetière boisé situé à Stockholm en Suède.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière boisé de Stockholm (Skogskyrkogården i Stockholm) est un cimetière boisé situé à Stockholm en Suède.
 Il a été construit à la suite d'un concours d'architecture qui a eu lieu en 1915, et qui visait à établir les plans d'un nouveau cimetière au sud de Stockholm. Les vainqueurs du concours furent Gunnar Asplund et Sigurd Lewerentz, deux jeunes représentants du mouvement fonctionnaliste. Les travaux ont débuté en 1917 et se sont terminés en 1920. Les architectes se sont inspirés du paysage existant pour créer une ambiance particulièrement agréable et fascinante qui a ensuite inspiré nombre de cimetières de par le monde.
 Le Skogskyrkogården a été en décembre 1994 inscrit à la liste du patrimoine mondial par l'UNESCO, et est un lieu très visité de Stockholm. Cependant, relativement peu de personnalités y reposent par rapport au cimetière du Nord de Stockholm.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Stockholm</t>
+          <t>Cimetière_boisé_de_Stockholm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sépultures de personnalités célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gunnar Asplund (1885-1940), architecte ;
 Tim Bergling, alias Avicii (1989-2018), disc jokey, producteur et chanteur ;
